--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -140,28 +140,28 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -174,8 +174,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8220076" y="190500"/>
-          <a:ext cx="2552700" cy="1009650"/>
+          <a:off x="8220075" y="190500"/>
+          <a:ext cx="3381375" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -184,22 +184,22 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -218,8 +218,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8220075" y="1000125"/>
-          <a:ext cx="1495425" cy="676275"/>
+          <a:off x="8220075" y="2095501"/>
+          <a:ext cx="3381375" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8220075" y="4000501"/>
+          <a:ext cx="3381375" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -520,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +577,7 @@
     <col min="6" max="6" width="22.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="50.7109375" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
@@ -566,7 +610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -596,11 +640,11 @@
       </c>
       <c r="H2" s="4">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -626,15 +670,15 @@
       </c>
       <c r="G3" s="5" t="str">
         <f t="shared" ref="G3:G31" ca="1" si="5">IF(RANDBETWEEN(1,4)=1,"A",IF(RANDBETWEEN(1,4)=2,"B",IF(RANDBETWEEN(1,4)=3,"C","D")))</f>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H31" ca="1" si="6">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -660,7 +704,7 @@
       </c>
       <c r="G4" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -668,7 +712,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -694,7 +738,7 @@
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -702,7 +746,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -736,7 +780,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -766,11 +810,11 @@
       </c>
       <c r="H7" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -800,11 +844,11 @@
       </c>
       <c r="H8" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -830,15 +874,15 @@
       </c>
       <c r="G9" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -868,11 +912,11 @@
       </c>
       <c r="H10" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -898,15 +942,15 @@
       </c>
       <c r="G11" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -932,7 +976,7 @@
       </c>
       <c r="G12" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -940,7 +984,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -970,11 +1014,11 @@
       </c>
       <c r="H13" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1000,15 +1044,15 @@
       </c>
       <c r="G14" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1034,15 +1078,15 @@
       </c>
       <c r="G15" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1068,15 +1112,15 @@
       </c>
       <c r="G16" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1110,7 +1154,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1136,15 +1180,15 @@
       </c>
       <c r="G18" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1170,7 +1214,7 @@
       </c>
       <c r="G19" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -1178,7 +1222,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1208,11 +1252,11 @@
       </c>
       <c r="H20" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1242,11 +1286,11 @@
       </c>
       <c r="H21" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1272,7 +1316,7 @@
       </c>
       <c r="G22" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -1280,7 +1324,7 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1310,11 +1354,11 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1340,15 +1384,15 @@
       </c>
       <c r="G24" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1374,15 +1418,15 @@
       </c>
       <c r="G25" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1412,11 +1456,11 @@
       </c>
       <c r="H26" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1442,15 +1486,15 @@
       </c>
       <c r="G27" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1480,11 +1524,11 @@
       </c>
       <c r="H28" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1510,15 +1554,15 @@
       </c>
       <c r="G29" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="H29" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1548,11 +1592,11 @@
       </c>
       <c r="H30" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1582,7 +1626,7 @@
       </c>
       <c r="H31" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I31" s="4"/>
     </row>
